--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter02/DrillDown_02_07.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter02/DrillDown_02_07.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03D7A443-1F62-4AE4-8284-E2E1E0DB2B6E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADEA3DD-28CA-4CA5-BB61-74039241AF97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="OrderDetails" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="OrderDetails" sheetId="1" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OrderDetails!$G$1:$G$275</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="1">[1]Products!$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">OrderDetails!$G$1:$G$275</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">[1]Products!$B$1</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="257">
   <si>
     <t>OrderNum</t>
   </si>
@@ -882,9 +883,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{453ECAE6-7D8F-4077-9B1E-7EAF2BE3F477}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -4614,7 +4618,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9DEA82EB-3407-4106-9D29-25141BDA1135}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9DEA82EB-3407-4106-9D29-25141BDA1135}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -4795,13 +4799,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47D77FD1-91B5-480B-BFA1-78E2213AE9B5}" name="Table1" displayName="Table1" ref="A1:J275" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD3F3A94-7055-4252-B1B6-B1D0945A6AD4}" name="Tabla2" displayName="Tabla2" ref="A1:J2" totalsRowShown="0">
+  <autoFilter ref="A1:J2" xr:uid="{E3E6D41E-B42A-4C9C-B5AA-09E74F12EE1A}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{87AFB4C5-4C29-41F9-BA01-72F1FEFFF871}" name="OrderNum"/>
+    <tableColumn id="2" xr3:uid="{1F986A75-88E0-4273-B15F-55938AE50512}" name="CustFullName"/>
+    <tableColumn id="3" xr3:uid="{7994BB63-7F38-4350-9397-A0F10D7E4FFB}" name="State"/>
+    <tableColumn id="4" xr3:uid="{FF1F3689-97DC-4233-BF6E-E4B6BE78BB79}" name="Date of Purchase" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{A9E56DED-FC48-41E7-9FD1-F262C1ADB363}" name="Category"/>
+    <tableColumn id="6" xr3:uid="{4BCD286A-7133-4791-9341-4AA6F8B8BCB8}" name="SKU"/>
+    <tableColumn id="7" xr3:uid="{32E54D2A-33B7-4A43-A9E0-03F961677E0D}" name="ProductName"/>
+    <tableColumn id="8" xr3:uid="{70657A14-0AE7-4EBF-B1ED-C0A50691E070}" name="Quantity"/>
+    <tableColumn id="9" xr3:uid="{0444971B-2840-4FDC-8791-817D44066686}" name="Unit Price"/>
+    <tableColumn id="10" xr3:uid="{DEC41BB5-AA0E-4C16-98CC-E0B46F7ABF55}" name="Total Price"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47D77FD1-91B5-480B-BFA1-78E2213AE9B5}" name="Table1" displayName="Table1" ref="A1:J275" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:J275" xr:uid="{7B4D6CFC-42A8-4DB3-BD79-B828A80BF095}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{D783D2C9-645E-4B66-B13A-822FE8F4210D}" name="OrderNum"/>
     <tableColumn id="2" xr3:uid="{52F48CAA-2D0F-451F-8400-1C4E69B287E4}" name="CustFullName"/>
     <tableColumn id="3" xr3:uid="{7D4A8C6F-CAC3-4272-B5F6-8AC105D8A736}" name="State"/>
-    <tableColumn id="4" xr3:uid="{0B0CE9E8-AD92-45B7-BAF2-0D891E576E19}" name="Date of Purchase" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{0B0CE9E8-AD92-45B7-BAF2-0D891E576E19}" name="Date of Purchase" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{16D20431-75B8-4EC5-8A53-5B4F07F36499}" name="Category"/>
     <tableColumn id="6" xr3:uid="{BA00F999-94FA-4C9C-8FE7-D8317FBB386E}" name="SKU"/>
     <tableColumn id="7" xr3:uid="{4C3BC569-1FC2-42FC-A17B-FA340C79E48D}" name="ProductName"/>
@@ -4814,7 +4837,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5109,14 +5132,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7393759E-A0AE-4A2D-B151-CC1621C55D3C}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42950</v>
+      </c>
+      <c r="E2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>29.03</v>
+      </c>
+      <c r="J2">
+        <v>319.33000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529B311F-2408-4E23-9EAC-3B801B640F4A}">
   <dimension ref="A3:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -5383,7 +5496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1772245-E949-49BD-9DDE-69AC1D118E83}">
   <dimension ref="A1:J275"/>
   <sheetViews>
@@ -5391,7 +5504,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
